--- a/fahrten.xlsx
+++ b/fahrten.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,33 +452,101 @@
           <t>Fahrzeit (Minuten)</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>km Start</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>km Ende</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>gefahrene km</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Zweck</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Partner/Firma</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Kennzeichen</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Fahrer</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>spadafds</t>
+          <t>abc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>München, BY, Deutschland</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nürnberg, BY, Deutschland</t>
+          <t>münchen</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>170.79</v>
+        <v>586.36</v>
       </c>
       <c r="F2" t="n">
-        <v>106</v>
+        <v>320.6</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>39</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nix</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blx</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>regina</t>
+        </is>
       </c>
     </row>
   </sheetData>
